--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_10.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magzumov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magzumov\IdeaProjects\unic\nicnbk-data\nicnbk-data-service-impl\src\main\resources\export_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <definedName name="GR_CODE_SHEET">4</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateCount="10000" iterateDelta="1E-10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>Код формы</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>по состоянию на дату</t>
+  </si>
+  <si>
+    <t>&lt;dd.MM.yyyy&gt;</t>
   </si>
 </sst>
 </file>
@@ -323,18 +326,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -625,54 +622,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -680,10 +629,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1010,9 +1007,9 @@
   <dimension ref="A1:AA62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="H83" sqref="H83"/>
-      <selection pane="topRight" activeCell="C27" sqref="C27"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2594,7 +2591,9 @@
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="79"/>
+      <c r="C2" s="79" t="s">
+        <v>52</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2796,65 +2795,65 @@
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
       <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
       <c r="AA10" s="15"/>
     </row>
     <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.25">
@@ -2887,147 +2886,147 @@
       <c r="AA11" s="15"/>
     </row>
     <row r="13" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64" t="s">
+      <c r="E13" s="72"/>
+      <c r="F13" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64" t="s">
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="65" t="s">
+      <c r="Q13" s="72"/>
+      <c r="R13" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="66"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="68" t="s">
+      <c r="S13" s="74"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="60" t="s">
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="Z13" s="60" t="s">
+      <c r="Z13" s="62" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="60" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="71" t="s">
+      <c r="G14" s="67"/>
+      <c r="H14" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="71" t="s">
+      <c r="I14" s="67"/>
+      <c r="J14" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="72"/>
-      <c r="L14" s="71" t="s">
+      <c r="K14" s="67"/>
+      <c r="L14" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="72"/>
-      <c r="N14" s="71" t="s">
+      <c r="M14" s="67"/>
+      <c r="N14" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="72"/>
-      <c r="P14" s="60" t="s">
+      <c r="O14" s="67"/>
+      <c r="P14" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="60" t="s">
+      <c r="Q14" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="60" t="s">
+      <c r="R14" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="60" t="s">
+      <c r="S14" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="60" t="s">
+      <c r="T14" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="60" t="s">
+      <c r="U14" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="V14" s="60" t="s">
+      <c r="V14" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="W14" s="60" t="s">
+      <c r="W14" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="X14" s="60" t="s">
+      <c r="X14" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
     </row>
     <row r="15" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
     </row>
     <row r="16" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="17" t="s">
         <v>20</v>
       </c>
@@ -3058,17 +3057,17 @@
       <c r="O16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
@@ -3473,10 +3472,10 @@
       <c r="Z27" s="24"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="78"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="31">
         <v>11</v>
       </c>
@@ -3512,184 +3511,184 @@
     </row>
     <row r="30" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="76"/>
-      <c r="W30" s="76"/>
-      <c r="X30" s="76"/>
-      <c r="Y30" s="76"/>
-      <c r="Z30" s="76"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
     </row>
     <row r="31" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="76"/>
-      <c r="S31" s="76"/>
-      <c r="T31" s="76"/>
-      <c r="U31" s="76"/>
-      <c r="V31" s="76"/>
-      <c r="W31" s="76"/>
-      <c r="X31" s="76"/>
-      <c r="Y31" s="76"/>
-      <c r="Z31" s="76"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
     </row>
     <row r="32" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="76"/>
-      <c r="U32" s="76"/>
-      <c r="V32" s="76"/>
-      <c r="W32" s="76"/>
-      <c r="X32" s="76"/>
-      <c r="Y32" s="76"/>
-      <c r="Z32" s="76"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
     </row>
     <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="76"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="76"/>
-      <c r="Z33" s="76"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
     </row>
     <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="76"/>
-      <c r="V34" s="76"/>
-      <c r="W34" s="76"/>
-      <c r="X34" s="76"/>
-      <c r="Y34" s="76"/>
-      <c r="Z34" s="76"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
     </row>
     <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="76"/>
-      <c r="U35" s="76"/>
-      <c r="V35" s="76"/>
-      <c r="W35" s="76"/>
-      <c r="X35" s="76"/>
-      <c r="Y35" s="76"/>
-      <c r="Z35" s="76"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
     </row>
     <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="34"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
       <c r="G36" s="36"/>
@@ -3885,6 +3884,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="B33:Z33"/>
+    <mergeCell ref="A9:Z9"/>
+    <mergeCell ref="A10:Z10"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="Z13:Z16"/>
     <mergeCell ref="B34:Z34"/>
     <mergeCell ref="B35:Z35"/>
     <mergeCell ref="B36:D36"/>
@@ -3901,26 +3920,6 @@
     <mergeCell ref="U14:U16"/>
     <mergeCell ref="V14:V16"/>
     <mergeCell ref="J14:K15"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="B33:Z33"/>
-    <mergeCell ref="A9:Z9"/>
-    <mergeCell ref="A10:Z10"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="Z13:Z16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="H14:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_10.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_10.xlsx
@@ -19,7 +19,7 @@
     <definedName name="GR_CODE_SHEET">4</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateCount="10000" iterateDelta="1E-10"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -483,7 +483,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -550,7 +550,6 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -622,6 +621,11 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -679,9 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1007,9 +1008,9 @@
   <dimension ref="A1:AA62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="H83" sqref="H83"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="Y19" sqref="Y19:Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2591,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="58" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="3"/>
@@ -2795,65 +2796,65 @@
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
       <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
       <c r="AA10" s="15"/>
     </row>
     <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.25">
@@ -2886,147 +2887,147 @@
       <c r="AA11" s="15"/>
     </row>
     <row r="13" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72" t="s">
+      <c r="E13" s="74"/>
+      <c r="F13" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72" t="s">
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="73" t="s">
+      <c r="Q13" s="74"/>
+      <c r="R13" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="74"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="76" t="s">
+      <c r="S13" s="76"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="62" t="s">
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="Z13" s="62" t="s">
+      <c r="Z13" s="64" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="62" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="66" t="s">
+      <c r="G14" s="69"/>
+      <c r="H14" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="66" t="s">
+      <c r="I14" s="69"/>
+      <c r="J14" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="67"/>
-      <c r="L14" s="66" t="s">
+      <c r="K14" s="69"/>
+      <c r="L14" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="67"/>
-      <c r="N14" s="66" t="s">
+      <c r="M14" s="69"/>
+      <c r="N14" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="67"/>
-      <c r="P14" s="62" t="s">
+      <c r="O14" s="69"/>
+      <c r="P14" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="62" t="s">
+      <c r="Q14" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="62" t="s">
+      <c r="R14" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="62" t="s">
+      <c r="S14" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="62" t="s">
+      <c r="T14" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="62" t="s">
+      <c r="U14" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="V14" s="62" t="s">
+      <c r="V14" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="W14" s="62" t="s">
+      <c r="W14" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="X14" s="62" t="s">
+      <c r="X14" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
     </row>
     <row r="15" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
     </row>
     <row r="16" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="17" t="s">
         <v>20</v>
       </c>
@@ -3057,17 +3058,17 @@
       <c r="O16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
@@ -3160,26 +3161,26 @@
       <c r="D18" s="21"/>
       <c r="E18" s="23"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
       <c r="AA18" s="26"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
@@ -3211,8 +3212,8 @@
       <c r="V19" s="24"/>
       <c r="W19" s="24"/>
       <c r="X19" s="24"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="56"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="55"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
@@ -3243,7 +3244,7 @@
       <c r="V20" s="24"/>
       <c r="W20" s="24"/>
       <c r="X20" s="24"/>
-      <c r="Y20" s="55"/>
+      <c r="Y20" s="24"/>
       <c r="Z20" s="24"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
@@ -3255,28 +3256,28 @@
         <v>4</v>
       </c>
       <c r="D21" s="21"/>
-      <c r="E21" s="53"/>
+      <c r="E21" s="52"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
@@ -3287,7 +3288,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="27"/>
-      <c r="E22" s="30"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="27"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
@@ -3307,7 +3308,7 @@
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="24"/>
-      <c r="Y22" s="55"/>
+      <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -3319,7 +3320,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="27"/>
-      <c r="E23" s="30"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="27"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
@@ -3339,7 +3340,7 @@
       <c r="V23" s="24"/>
       <c r="W23" s="24"/>
       <c r="X23" s="24"/>
-      <c r="Y23" s="55"/>
+      <c r="Y23" s="24"/>
       <c r="Z23" s="24"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
@@ -3351,7 +3352,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="27"/>
-      <c r="E24" s="30"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="27"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -3371,7 +3372,7 @@
       <c r="V24" s="24"/>
       <c r="W24" s="24"/>
       <c r="X24" s="24"/>
-      <c r="Y24" s="55"/>
+      <c r="Y24" s="24"/>
       <c r="Z24" s="24"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -3383,7 +3384,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="27"/>
-      <c r="E25" s="54"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="27"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25"/>
@@ -3393,7 +3394,7 @@
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
-      <c r="O25" s="56"/>
+      <c r="O25" s="55"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
@@ -3403,8 +3404,8 @@
       <c r="V25" s="24"/>
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="57"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="55"/>
       <c r="AA25" s="26"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
@@ -3416,7 +3417,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="27"/>
-      <c r="E26" s="54"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="27"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
@@ -3436,7 +3437,7 @@
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
-      <c r="Y26" s="55"/>
+      <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
@@ -3448,7 +3449,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="27"/>
-      <c r="E27" s="54"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="27"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -3468,233 +3469,233 @@
       <c r="V27" s="24"/>
       <c r="W27" s="24"/>
       <c r="X27" s="24"/>
-      <c r="Y27" s="55"/>
+      <c r="Y27" s="24"/>
       <c r="Z27" s="24"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="31">
+      <c r="B28" s="67"/>
+      <c r="C28" s="30">
         <v>11</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="57"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="56"/>
     </row>
     <row r="29" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="Z29" s="58"/>
+      <c r="A29" s="31"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="Z29" s="57"/>
     </row>
     <row r="30" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="59" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
     </row>
     <row r="31" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="60"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
     </row>
     <row r="32" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="60"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
-      <c r="X32" s="60"/>
-      <c r="Y32" s="60"/>
-      <c r="Z32" s="60"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
     </row>
     <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="60"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="60"/>
-      <c r="X33" s="60"/>
-      <c r="Y33" s="60"/>
-      <c r="Z33" s="60"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
     </row>
     <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="60"/>
-      <c r="Z34" s="60"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
     </row>
     <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="60"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
     </row>
     <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -3702,190 +3703,188 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
     </row>
     <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="44"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="43"/>
     </row>
     <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
     </row>
     <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
     </row>
     <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
     </row>
     <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="S45" s="50"/>
-      <c r="T45" s="50"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="S46" s="51"/>
-      <c r="T46" s="51"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="S47" s="51"/>
-      <c r="T47" s="51"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="50"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="S48" s="51"/>
-      <c r="T48" s="51"/>
+      <c r="S48" s="50"/>
+      <c r="T48" s="50"/>
     </row>
     <row r="49" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S49" s="51"/>
-      <c r="T49" s="51"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
     </row>
     <row r="50" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S50" s="51"/>
-      <c r="T50" s="51"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
     </row>
     <row r="51" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S51" s="51"/>
-      <c r="T51" s="51"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
     </row>
     <row r="52" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S52" s="50"/>
-      <c r="T52" s="50"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
     </row>
     <row r="53" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
     </row>
     <row r="54" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
     </row>
     <row r="55" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
     </row>
     <row r="56" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S56" s="52"/>
-      <c r="T56" s="52"/>
+      <c r="S56" s="51"/>
+      <c r="T56" s="51"/>
     </row>
     <row r="57" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="51"/>
     </row>
     <row r="58" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S58" s="52"/>
-      <c r="T58" s="52"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="51"/>
     </row>
     <row r="59" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S59" s="52"/>
-      <c r="T59" s="52"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="51"/>
     </row>
     <row r="60" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S60" s="52"/>
-      <c r="T60" s="52"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="51"/>
     </row>
     <row r="61" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S61" s="52"/>
-      <c r="T61" s="52"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
     </row>
     <row r="62" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S62" s="52"/>
-      <c r="T62" s="52"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="H14:I15"/>
     <mergeCell ref="L14:M15"/>
@@ -3904,6 +3903,8 @@
     <mergeCell ref="U13:X13"/>
     <mergeCell ref="Y13:Y16"/>
     <mergeCell ref="Z13:Z16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
     <mergeCell ref="B34:Z34"/>
     <mergeCell ref="B35:Z35"/>
     <mergeCell ref="B36:D36"/>

--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_10.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_10.xlsx
@@ -136,36 +136,21 @@
     <t>Изменение (гр.23-гр.22)</t>
   </si>
   <si>
-    <t>Прочие краткосрочные активы (сумма строк 2-3)</t>
-  </si>
-  <si>
     <t>Расходы будущих периодов</t>
   </si>
   <si>
     <t>Прочие краткосрочные активы</t>
   </si>
   <si>
-    <t>Прочие долгосрочные активы (сумма строк 5-10 )</t>
-  </si>
-  <si>
     <t>Инвестиции в недвижимость</t>
   </si>
   <si>
-    <t>Биологические активы</t>
-  </si>
-  <si>
-    <t>Разведочные и оценочные активы</t>
-  </si>
-  <si>
     <t>Незавершенное строительство</t>
   </si>
   <si>
     <t>Прочие долгосрочные активы</t>
   </si>
   <si>
-    <t>ВСЕГО  (сумма строк 1, 4)</t>
-  </si>
-  <si>
     <t>* В гр.1 четвертый знак номера счета указывается с учетом принадлежности к контрагентам (эмитентам), то есть от 1 до 3</t>
   </si>
   <si>
@@ -188,6 +173,21 @@
   </si>
   <si>
     <t>&lt;dd.MM.yyyy&gt;</t>
+  </si>
+  <si>
+    <t>Прочие краткосрочные активы (сумма строк 2-4)</t>
+  </si>
+  <si>
+    <t>Краткосрочные авансы выданные</t>
+  </si>
+  <si>
+    <t>Долгосрочные авансы выданные</t>
+  </si>
+  <si>
+    <t>Всего  (сумма строк 1, 5)</t>
+  </si>
+  <si>
+    <t>Прочие долгосрочные активы (сумма строк 6-10)</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -626,63 +626,69 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1008,9 +1014,9 @@
   <dimension ref="A1:AA62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="H83" sqref="H83"/>
-      <selection pane="topRight" activeCell="Y19" sqref="Y19:Z19"/>
+      <selection pane="topRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2593,7 +2599,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="58" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2828,7 +2834,7 @@
     </row>
     <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B10" s="72"/>
       <c r="C10" s="72"/>
@@ -2887,13 +2893,13 @@
       <c r="AA11" s="15"/>
     </row>
     <row r="13" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="67" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="74" t="s">
@@ -2927,107 +2933,107 @@
       <c r="V13" s="79"/>
       <c r="W13" s="79"/>
       <c r="X13" s="79"/>
-      <c r="Y13" s="64" t="s">
+      <c r="Y13" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="Z13" s="64" t="s">
+      <c r="Z13" s="67" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="73"/>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="68" t="s">
+      <c r="G14" s="64"/>
+      <c r="H14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="68" t="s">
+      <c r="I14" s="64"/>
+      <c r="J14" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="69"/>
-      <c r="L14" s="68" t="s">
+      <c r="K14" s="64"/>
+      <c r="L14" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="69"/>
-      <c r="N14" s="68" t="s">
+      <c r="M14" s="64"/>
+      <c r="N14" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="69"/>
-      <c r="P14" s="64" t="s">
+      <c r="O14" s="64"/>
+      <c r="P14" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="64" t="s">
+      <c r="Q14" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="64" t="s">
+      <c r="R14" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="64" t="s">
+      <c r="S14" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="64" t="s">
+      <c r="T14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="64" t="s">
+      <c r="U14" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="V14" s="64" t="s">
+      <c r="V14" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="W14" s="64" t="s">
+      <c r="W14" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="X14" s="64" t="s">
+      <c r="X14" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
     </row>
     <row r="15" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="73"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
     </row>
     <row r="16" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="17" t="s">
         <v>20</v>
       </c>
@@ -3058,15 +3064,15 @@
       <c r="O16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
       <c r="Y16" s="80"/>
       <c r="Z16" s="80"/>
     </row>
@@ -3153,7 +3159,7 @@
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C18" s="22">
         <v>1</v>
@@ -3185,40 +3191,41 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
-      <c r="B19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="18">
+      <c r="B19" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="62">
         <v>2</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="55"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="26"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="18">
         <v>3</v>
@@ -3226,7 +3233,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="28"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="25"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -3245,76 +3252,76 @@
       <c r="W20" s="24"/>
       <c r="X20" s="24"/>
       <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
+      <c r="Z20" s="55"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
-      <c r="B21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="22">
+      <c r="B21" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="18">
         <v>4</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
-      <c r="B22" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="B22" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="22">
         <v>5</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C23" s="18">
         <v>6</v>
@@ -3346,7 +3353,7 @@
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="27" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C24" s="18">
         <v>7</v>
@@ -3378,7 +3385,7 @@
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="18">
         <v>8</v>
@@ -3411,7 +3418,7 @@
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C26" s="18">
         <v>9</v>
@@ -3443,7 +3450,7 @@
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C27" s="18">
         <v>10</v>
@@ -3473,10 +3480,10 @@
       <c r="Z27" s="24"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="67"/>
+      <c r="A28" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="82"/>
       <c r="C28" s="30">
         <v>11</v>
       </c>
@@ -3512,184 +3519,184 @@
     </row>
     <row r="30" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+    </row>
+    <row r="31" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+    </row>
+    <row r="32" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+    </row>
+    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+    </row>
+    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+    </row>
+    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-    </row>
-    <row r="31" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-    </row>
-    <row r="32" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
-    </row>
-    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-    </row>
-    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-    </row>
-    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
     </row>
     <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="33"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
       <c r="E36" s="34"/>
       <c r="F36" s="34"/>
       <c r="G36" s="35"/>
@@ -3885,26 +3892,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="B33:Z33"/>
-    <mergeCell ref="A9:Z9"/>
-    <mergeCell ref="A10:Z10"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="Z13:Z16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
     <mergeCell ref="B34:Z34"/>
     <mergeCell ref="B35:Z35"/>
     <mergeCell ref="B36:D36"/>
@@ -3921,6 +3908,26 @@
     <mergeCell ref="U14:U16"/>
     <mergeCell ref="V14:V16"/>
     <mergeCell ref="J14:K15"/>
+    <mergeCell ref="A9:Z9"/>
+    <mergeCell ref="A10:Z10"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="Z13:Z16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="B33:Z33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
